--- a/Talissa_Saadia_Projekt.xlsx
+++ b/Talissa_Saadia_Projekt.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29127"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A953FFB0-9891-4768-9F17-8290E38ABF2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B42CDBE5-4A7C-4359-8FBC-902B7A803AC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project Planner" sheetId="1" r:id="rId1"/>
@@ -15,13 +15,13 @@
   <definedNames>
     <definedName name="Actual">(PeriodInActual*('Project Planner'!$E1&gt;0))*PeriodInPlan</definedName>
     <definedName name="ActualBeyond">PeriodInActual*('Project Planner'!$E1&gt;0)</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">'Project Planner'!$3:$4</definedName>
     <definedName name="PercentComplete">PercentCompleteBeyond*PeriodInPlan</definedName>
     <definedName name="PercentCompleteBeyond">('Project Planner'!A$4=MEDIAN('Project Planner'!A$4,'Project Planner'!$E1,'Project Planner'!$E1+'Project Planner'!$F1)*('Project Planner'!$E1&gt;0))*(('Project Planner'!A$4&lt;(INT('Project Planner'!$E1+'Project Planner'!$F1*'Project Planner'!$G1)))+('Project Planner'!A$4='Project Planner'!$E1))*('Project Planner'!$G1&gt;0)</definedName>
     <definedName name="period_selected">'Project Planner'!$H$2</definedName>
     <definedName name="PeriodInActual">'Project Planner'!A$4=MEDIAN('Project Planner'!A$4,'Project Planner'!$E1,'Project Planner'!$E1+'Project Planner'!$F1-1)</definedName>
     <definedName name="PeriodInPlan">'Project Planner'!A$4=MEDIAN('Project Planner'!A$4,'Project Planner'!$C1,'Project Planner'!$C1+'Project Planner'!$D1-1)</definedName>
     <definedName name="Plan">PeriodInPlan*('Project Planner'!$C1&gt;0)</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">'Project Planner'!$3:$4</definedName>
     <definedName name="TitleRegion..BO60">'Project Planner'!$B$3:$B$4</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="75">
   <si>
     <t>Project Planner</t>
   </si>
@@ -283,13 +283,7 @@
     <t>Webseite Antrag</t>
   </si>
   <si>
-    <t>Inhalt Daten</t>
-  </si>
-  <si>
     <t>4. Abschluss</t>
-  </si>
-  <si>
-    <t>3. Planung und Realisierung</t>
   </si>
   <si>
     <t>4.Abschluss</t>
@@ -879,20 +873,20 @@
     <cellStyle name="Activity" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="Actual (beyond plan) legend" xfId="17" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
     <cellStyle name="Actual legend" xfId="15" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="Explanatory Text" xfId="12" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="1" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="9" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="10" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="11" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Erklärender Text" xfId="12" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Label" xfId="5" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
     <cellStyle name="Percent Complete" xfId="6" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
     <cellStyle name="Period Headers" xfId="3" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
     <cellStyle name="Period Highlight Control" xfId="7" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
     <cellStyle name="Period Value" xfId="13" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
     <cellStyle name="Plan legend" xfId="14" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
     <cellStyle name="Project Headers" xfId="4" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
-    <cellStyle name="Title" xfId="8" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0" customBuiltin="1"/>
+    <cellStyle name="Überschrift" xfId="8" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Überschrift 1" xfId="1" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Überschrift 2" xfId="9" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Überschrift 3" xfId="10" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Überschrift 4" xfId="11" builtinId="19" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="10">
     <dxf>
@@ -1500,17 +1494,17 @@
   </sheetPr>
   <dimension ref="B1:BO20"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="Q5" sqref="Q5"/>
+    <sheetView showGridLines="0" topLeftCell="A9" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.83203125" defaultRowHeight="30" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="2.83984375" defaultRowHeight="30" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="2.6640625" customWidth="1"/>
-    <col min="2" max="2" width="26.9140625" style="2" customWidth="1"/>
-    <col min="3" max="6" width="11.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.6640625" style="4" customWidth="1"/>
-    <col min="8" max="27" width="2.83203125" style="1"/>
+    <col min="1" max="1" width="2.68359375" customWidth="1"/>
+    <col min="2" max="2" width="26.89453125" style="2" customWidth="1"/>
+    <col min="3" max="6" width="11.68359375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.68359375" style="4" customWidth="1"/>
+    <col min="8" max="27" width="2.83984375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:67" ht="60" customHeight="1" thickBot="1">
@@ -1913,7 +1907,7 @@
     </row>
     <row r="10" spans="2:67" ht="30" customHeight="1">
       <c r="B10" s="6" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="C10" s="7">
         <v>2</v>
@@ -1932,80 +1926,80 @@
       </c>
     </row>
     <row r="11" spans="2:67" ht="30" customHeight="1">
-      <c r="B11" s="34" t="s">
+      <c r="B11" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="7">
+        <v>2</v>
+      </c>
+      <c r="D11" s="7">
+        <v>1</v>
+      </c>
+      <c r="E11" s="7">
+        <v>2</v>
+      </c>
+      <c r="F11" s="7">
+        <v>1</v>
+      </c>
+      <c r="G11" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:67" ht="30" customHeight="1">
+      <c r="B12" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="C11" s="37">
+      <c r="C12" s="37">
         <v>2</v>
       </c>
-      <c r="D11" s="35">
-        <v>1</v>
-      </c>
-      <c r="E11" s="35">
+      <c r="D12" s="35">
+        <v>1</v>
+      </c>
+      <c r="E12" s="35">
         <v>2</v>
       </c>
-      <c r="F11" s="35">
-        <v>1</v>
-      </c>
-      <c r="G11" s="36">
+      <c r="F12" s="35">
+        <v>1</v>
+      </c>
+      <c r="G12" s="36">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:67" ht="30" customHeight="1">
-      <c r="B12" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C12" s="7">
+    <row r="13" spans="2:67" ht="30" customHeight="1">
+      <c r="B13" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="7">
+        <v>3</v>
+      </c>
+      <c r="D13" s="7">
         <v>2</v>
       </c>
-      <c r="D12" s="7">
-        <v>1</v>
-      </c>
-      <c r="E12" s="7">
+      <c r="E13" s="7">
+        <v>3</v>
+      </c>
+      <c r="F13" s="7">
         <v>2</v>
       </c>
-      <c r="F12" s="7">
-        <v>1</v>
-      </c>
-      <c r="G12" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="2:67" ht="30" customHeight="1">
-      <c r="B13" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="C13" s="37">
-        <v>3</v>
-      </c>
-      <c r="D13" s="35">
-        <v>4</v>
-      </c>
-      <c r="E13" s="35">
-        <v>3</v>
-      </c>
-      <c r="F13" s="35">
-        <v>4</v>
-      </c>
-      <c r="G13" s="36">
+      <c r="G13" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="2:67" ht="30" customHeight="1">
       <c r="B14" s="6" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="C14" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D14" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E14" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F14" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G14" s="8">
         <v>0</v>
@@ -2013,16 +2007,16 @@
     </row>
     <row r="15" spans="2:67" ht="30" customHeight="1">
       <c r="B15" s="6" t="s">
-        <v>73</v>
+        <v>49</v>
       </c>
       <c r="C15" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D15" s="7">
         <v>1</v>
       </c>
       <c r="E15" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F15" s="7">
         <v>1</v>
@@ -2032,57 +2026,57 @@
       </c>
     </row>
     <row r="16" spans="2:67" ht="30" customHeight="1">
-      <c r="B16" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C16" s="7">
-        <v>6</v>
-      </c>
-      <c r="D16" s="7">
-        <v>1</v>
-      </c>
-      <c r="E16" s="7">
-        <v>6</v>
-      </c>
-      <c r="F16" s="7">
-        <v>1</v>
-      </c>
-      <c r="G16" s="8">
+      <c r="B16" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" s="37">
+        <v>3</v>
+      </c>
+      <c r="D16" s="35">
+        <v>4</v>
+      </c>
+      <c r="E16" s="35">
+        <v>3</v>
+      </c>
+      <c r="F16" s="35">
+        <v>4</v>
+      </c>
+      <c r="G16" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="2:7" ht="30" customHeight="1">
-      <c r="B17" s="34" t="s">
-        <v>56</v>
-      </c>
-      <c r="C17" s="37">
+      <c r="B17" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="7">
         <v>7</v>
       </c>
-      <c r="D17" s="35">
-        <v>3</v>
-      </c>
-      <c r="E17" s="35">
+      <c r="D17" s="7">
+        <v>1</v>
+      </c>
+      <c r="E17" s="7">
         <v>7</v>
       </c>
-      <c r="F17" s="35">
-        <v>3</v>
-      </c>
-      <c r="G17" s="36">
+      <c r="F17" s="7">
+        <v>1</v>
+      </c>
+      <c r="G17" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="2:7" ht="30" customHeight="1">
       <c r="B18" s="6" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C18" s="7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D18" s="7">
         <v>1</v>
       </c>
       <c r="E18" s="7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F18" s="7">
         <v>1</v>
@@ -2093,16 +2087,16 @@
     </row>
     <row r="19" spans="2:7" ht="30" customHeight="1">
       <c r="B19" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C19" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" s="7">
         <v>1</v>
       </c>
       <c r="E19" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F19" s="7">
         <v>1</v>
@@ -2112,22 +2106,22 @@
       </c>
     </row>
     <row r="20" spans="2:7" ht="30" customHeight="1">
-      <c r="B20" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C20" s="7">
-        <v>9</v>
-      </c>
-      <c r="D20" s="7">
-        <v>1</v>
-      </c>
-      <c r="E20" s="7">
-        <v>9</v>
-      </c>
-      <c r="F20" s="7">
-        <v>1</v>
-      </c>
-      <c r="G20" s="8">
+      <c r="B20" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20" s="37">
+        <v>7</v>
+      </c>
+      <c r="D20" s="35">
+        <v>3</v>
+      </c>
+      <c r="E20" s="35">
+        <v>7</v>
+      </c>
+      <c r="F20" s="35">
+        <v>3</v>
+      </c>
+      <c r="G20" s="36">
         <v>0</v>
       </c>
     </row>
@@ -2220,16 +2214,16 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.68359375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="30.6640625" customWidth="1"/>
-    <col min="2" max="2" width="30.75" customWidth="1"/>
-    <col min="3" max="3" width="76.58203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.68359375" customWidth="1"/>
+    <col min="2" max="2" width="30.734375" customWidth="1"/>
+    <col min="3" max="3" width="76.578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.15625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.68359375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -2276,7 +2270,7 @@
         <v>43</v>
       </c>
       <c r="C3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E3">
         <f>'Project Planner'!D6</f>
@@ -2292,7 +2286,7 @@
         <v>45</v>
       </c>
       <c r="C4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E4">
         <f>'Project Planner'!D8</f>
@@ -2308,15 +2302,27 @@
         <v>54</v>
       </c>
       <c r="C5" t="s">
-        <v>60</v>
+        <v>58</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="B6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C6" t="s">
-        <v>61</v>
+        <v>59</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2327,76 +2333,76 @@
         <v>46</v>
       </c>
       <c r="C7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E7">
-        <f>'Project Planner'!D12</f>
         <v>1</v>
       </c>
       <c r="F7">
-        <f>'Project Planner'!F12</f>
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" t="s">
-        <v>57</v>
-      </c>
       <c r="B8" t="s">
         <v>47</v>
       </c>
       <c r="C8" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E8">
-        <f>'Project Planner'!D14</f>
         <v>2</v>
       </c>
       <c r="F8">
-        <f>'Project Planner'!F14</f>
+        <f>'Project Planner'!F13</f>
         <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="B9" s="23" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C9" t="s">
-        <v>76</v>
+        <v>74</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>53</v>
+      </c>
       <c r="B10" t="s">
         <v>49</v>
       </c>
       <c r="C10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E10">
-        <f>'Project Planner'!D16</f>
+        <f>'Project Planner'!D15</f>
         <v>1</v>
       </c>
       <c r="F10">
-        <f>'Project Planner'!F16</f>
+        <f>'Project Planner'!F15</f>
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" t="s">
-        <v>58</v>
-      </c>
       <c r="B11" t="s">
         <v>48</v>
       </c>
       <c r="C11" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E11">
-        <f>'Project Planner'!D18</f>
+        <f>'Project Planner'!D17</f>
         <v>1</v>
       </c>
       <c r="F11">
-        <f>'Project Planner'!F18</f>
+        <f>'Project Planner'!F17</f>
         <v>1</v>
       </c>
     </row>
@@ -2405,31 +2411,30 @@
         <v>51</v>
       </c>
       <c r="C12" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E12">
-        <f>'Project Planner'!D20</f>
         <v>1</v>
       </c>
       <c r="F12">
-        <f>'Project Planner'!F20</f>
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>56</v>
+      </c>
       <c r="B13" t="s">
         <v>50</v>
       </c>
       <c r="C13" t="s">
-        <v>66</v>
-      </c>
-      <c r="E13" t="e">
-        <f>'Project Planner'!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F13" t="e">
-        <f>'Project Planner'!#REF!</f>
-        <v>#REF!</v>
+        <v>64</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2443,16 +2448,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48C04AB7-A195-6741-A381-199C2D99EDC7}">
   <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.83203125" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83984375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="16384" width="10.83203125" style="23"/>
+    <col min="1" max="16384" width="10.83984375" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18">
+    <row r="1" spans="1:7" ht="17.7">
       <c r="A1" s="24" t="s">
         <v>19</v>
       </c>
@@ -2563,7 +2568,7 @@
         <v>1</v>
       </c>
       <c r="C19" s="23" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -2571,7 +2576,7 @@
         <v>2</v>
       </c>
       <c r="C20" s="23" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -2592,7 +2597,7 @@
         <v>1</v>
       </c>
       <c r="C25" s="23" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -2600,7 +2605,7 @@
         <v>2</v>
       </c>
       <c r="C26" s="23" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="27" spans="1:3">
